--- a/Kenya_Country-wise Results Report-final.xlsx
+++ b/Kenya_Country-wise Results Report-final.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John.Kul\Documents\Other-works\KECO_CPAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John.Kul\Documents\Other-works\KECO_CPAR2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7553BDCD-0DCD-410B-9A77-AB5823FA594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535DF7F-5C0F-4C6C-B88D-378AD6AE8BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kenya_Country-wise Results Repo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kenya_Country-wise Results Repo'!$B$1:$C$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="32">
   <si>
     <t>0.0.1 # of total direct beneficiaries</t>
   </si>
@@ -108,6 +111,27 @@
   </si>
   <si>
     <t>All_Projects</t>
+  </si>
+  <si>
+    <t>Project_thematic_Area</t>
+  </si>
+  <si>
+    <t>R2L</t>
+  </si>
+  <si>
+    <t>R2P</t>
+  </si>
+  <si>
+    <t>R2QE</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>All thematic Areas</t>
+  </si>
+  <si>
+    <t>Other Projects</t>
   </si>
 </sst>
 </file>
@@ -142,7 +166,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE9E8E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,13 +235,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,10 +593,10 @@
     <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.36328125" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -579,1067 +612,1257 @@
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <f>SUM(C3:C63)</f>
+        <v>147973</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(D3:D63)</f>
+        <v>163254</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E3:E63)</f>
+        <v>311227</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <v>12274</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>53</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
         <v>12253</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>5671</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>6379</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>12050</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
         <v>12254</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>273</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>248</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>521</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
         <v>13247</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>310</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>90</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
         <v>13248</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>16590</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>16765</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>33355</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
         <v>13216</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>20006</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>21562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>41568</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
         <v>13270</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>27279</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>22531</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>49810</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
         <v>13229</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>1168</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>334</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>1502</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
         <v>13323</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>2399</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>2546</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>4945</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
         <v>13326</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>12449</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>13542</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>25991</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
         <v>13331</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>156</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>144</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
         <v>13364</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>6759</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>4389</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>11148</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12274</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>12253</v>
+        <v>12274</v>
       </c>
       <c r="C15" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>12254</v>
+        <v>12253</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>13216</v>
+        <v>12254</v>
       </c>
       <c r="C17" s="2">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>798</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>13270</v>
+        <v>13216</v>
       </c>
       <c r="C18" s="2">
-        <v>767</v>
+        <v>477</v>
       </c>
       <c r="D18" s="2">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="E18" s="2">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1275</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>13323</v>
+        <v>13270</v>
       </c>
       <c r="C19" s="2">
-        <v>31</v>
+        <v>767</v>
       </c>
       <c r="D19" s="2">
-        <v>27</v>
+        <v>704</v>
       </c>
       <c r="E19" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1471</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="3">
+        <v>13323</v>
+      </c>
+      <c r="C20" s="2">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
         <v>13326</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>312</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>339</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>651</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3">
-        <v>13216</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>120</v>
-      </c>
-      <c r="E21" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3">
+        <v>13216</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>120</v>
+      </c>
+      <c r="E22" s="2">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
         <v>13270</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
         <v>16</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3">
-        <v>13248</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>72</v>
-      </c>
-      <c r="E23" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
+        <v>13248</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
         <v>13323</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
-        <v>12274</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>72</v>
-      </c>
-      <c r="E25" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3">
-        <v>13247</v>
+        <v>12274</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>400</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="3">
+        <v>13247</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>400</v>
+      </c>
+      <c r="E27" s="2">
+        <v>400</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
         <v>13331</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
         <v>230</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3">
-        <v>12274</v>
-      </c>
-      <c r="C28" s="2">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="3">
-        <v>13247</v>
+        <v>12274</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="3">
+        <v>13247</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>400</v>
+      </c>
+      <c r="E30" s="2">
+        <v>400</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
         <v>13331</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>125</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>105</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>13229</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
         <f>495+1498</f>
         <v>1993</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <f>495+1498</f>
         <v>1993</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3">
-        <v>12274</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>72</v>
-      </c>
-      <c r="E32" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="3">
-        <v>12254</v>
+        <v>12274</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>521</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="3">
+        <v>12254</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>521</v>
+      </c>
+      <c r="E34" s="2">
+        <v>521</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3">
         <v>13247</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
         <v>400</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="3">
-        <v>12253</v>
-      </c>
-      <c r="C35" s="2">
-        <v>88</v>
-      </c>
-      <c r="D35" s="2">
-        <v>265</v>
-      </c>
-      <c r="E35" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3">
-        <v>12254</v>
+        <v>12253</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="E36" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3">
-        <v>13248</v>
+        <v>12254</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3">
-        <v>13216</v>
+      <c r="B38" s="4">
+        <v>13248</v>
       </c>
       <c r="C38" s="2">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>749</v>
+        <v>150</v>
       </c>
       <c r="E38" s="2">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="3">
-        <v>13270</v>
+        <v>13216</v>
       </c>
       <c r="C39" s="2">
-        <v>4057</v>
+        <v>325</v>
       </c>
       <c r="D39" s="2">
-        <v>1745</v>
+        <v>749</v>
       </c>
       <c r="E39" s="2">
-        <v>5802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1074</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="3">
-        <v>13229</v>
+        <v>13270</v>
       </c>
       <c r="C40" s="2">
-        <v>0</v>
+        <v>4057</v>
       </c>
       <c r="D40" s="2">
-        <v>16</v>
+        <v>1745</v>
       </c>
       <c r="E40" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5802</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="3">
-        <v>13331</v>
+        <v>13229</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="3">
+        <v>13331</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3">
         <v>13364</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>923</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>1682</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <v>2605</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="3">
-        <v>13270</v>
-      </c>
-      <c r="C43" s="2">
-        <v>18440</v>
-      </c>
-      <c r="D43" s="2">
-        <v>17731</v>
-      </c>
-      <c r="E43" s="2">
-        <v>36171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="3">
+        <v>13270</v>
+      </c>
+      <c r="C44" s="2">
+        <v>18440</v>
+      </c>
+      <c r="D44" s="2">
+        <v>17731</v>
+      </c>
+      <c r="E44" s="2">
+        <v>36171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3">
         <v>13323</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>408</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>402</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>810</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B45" s="3">
-        <v>13270</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1051</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1647</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B46" s="3">
         <v>13270</v>
       </c>
       <c r="C46" s="2">
+        <v>1051</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1647</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2698</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3">
+        <v>13270</v>
+      </c>
+      <c r="C47" s="2">
         <v>1128</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>1801</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E47" s="2">
         <v>2929</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="3">
-        <v>13216</v>
-      </c>
-      <c r="C47" s="2">
-        <v>126</v>
-      </c>
-      <c r="D47" s="2">
-        <v>333</v>
-      </c>
-      <c r="E47" s="2">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="3">
-        <v>13270</v>
+        <v>13216</v>
       </c>
       <c r="C48" s="2">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2">
         <v>333</v>
       </c>
       <c r="E48" s="2">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3">
+        <v>13270</v>
+      </c>
+      <c r="C49" s="2">
+        <v>178</v>
+      </c>
+      <c r="D49" s="2">
+        <v>333</v>
+      </c>
+      <c r="E49" s="2">
+        <v>511</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3">
         <v>13323</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
         <v>181</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3">
-        <v>13326</v>
-      </c>
-      <c r="C50" s="2">
-        <v>12449</v>
-      </c>
-      <c r="D50" s="2">
-        <v>13542</v>
-      </c>
-      <c r="E50" s="2">
-        <v>25991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3">
+        <v>13326</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12449</v>
+      </c>
+      <c r="D51" s="2">
+        <v>13542</v>
+      </c>
+      <c r="E51" s="2">
+        <v>25991</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3">
         <v>13364</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
         <v>11148</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <v>11148</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3">
-        <v>12253</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>20</v>
-      </c>
-      <c r="E52" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="3">
-        <v>12254</v>
+        <v>12253</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="3">
-        <v>13216</v>
+        <v>12254</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="3">
-        <v>13229</v>
+        <v>13216</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="3">
+        <v>13229</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
         <v>13323</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
         <v>10</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E57" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>13270</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
         <v>36</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E58" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="3">
-        <v>12253</v>
-      </c>
-      <c r="C58" s="2">
-        <v>402</v>
-      </c>
-      <c r="D58" s="2">
-        <v>441</v>
-      </c>
-      <c r="E58" s="2">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="3">
+        <v>12253</v>
+      </c>
+      <c r="C59" s="2">
+        <v>402</v>
+      </c>
+      <c r="D59" s="2">
+        <v>441</v>
+      </c>
+      <c r="E59" s="2">
+        <v>843</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="3">
         <v>13364</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>923</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D60" s="2">
         <v>1682</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="2">
         <v>2605</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="3">
-        <v>12253</v>
-      </c>
-      <c r="C60" s="2">
-        <v>76</v>
-      </c>
-      <c r="D60" s="2">
-        <v>242</v>
-      </c>
-      <c r="E60" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="3">
-        <v>13216</v>
+        <v>12253</v>
       </c>
       <c r="C61" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="E61" s="2">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="3">
+        <v>13216</v>
+      </c>
+      <c r="C62" s="2">
+        <v>126</v>
+      </c>
+      <c r="D62" s="2">
+        <v>333</v>
+      </c>
+      <c r="E62" s="2">
+        <v>459</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="3">
         <v>13326</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>12449</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D63" s="2">
         <v>13542</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E63" s="2">
         <v>25991</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="2">
-        <f>SUM(C2:C62)</f>
-        <v>147973</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" ref="D63:E63" si="0">SUM(D2:D62)</f>
-        <v>163254</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="0"/>
-        <v>311227</v>
+      <c r="F63" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:C63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>